--- a/testdata/logindata.xlsx
+++ b/testdata/logindata.xlsx
@@ -16,39 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
-    <t>CurrentAddress</t>
-  </si>
-  <si>
-    <t>PermanentAddress</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Anil</t>
   </si>
   <si>
-    <t>k23anil@gmail.com</t>
-  </si>
-  <si>
     <t>Noida</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Current Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>D1-608 Cherry county Society</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>info@anilmishraqatesting.com</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -93,9 +111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,65 +418,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8699738312</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
